--- a/pred_ohlcv/54_21/2019-10-20 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 BCH ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-57.98863657000001</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-64.29233657000002</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-73.19923657000002</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-38.32313657000002</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-39.60163657000003</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-37.91533657000002</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-38.11233657000002</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-36.17803657000002</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-36.21763657000002</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-41.84303657000002</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.75653657000002</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-44.75653657000002</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-44.25933657000002</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-46.95783657000003</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-47.40663657000002</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-65.10653657000003</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-98.44803657000004</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-98.57303657000004</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-106.8655337500002</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-106.6655337500002</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-102.9668337500002</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-201.9310337500002</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-866.6445112099999</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-838.5731759299998</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-844.8978759299998</v>
       </c>
       <c r="H404">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H405">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H406">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-829.8473550599998</v>
       </c>
       <c r="H407">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-847.9323550599998</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-841.2683550599999</v>
       </c>
       <c r="H409">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-916.9852550600001</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-912.5382550600001</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-912.6169550600001</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-913.1968550600001</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-913.0488550600001</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-914.62545506</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-910.62545506</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-920.62545506</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-924.81715506</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-948.15774886</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-955.04944886</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-975.04944886</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-975.04944886</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-960.80784886</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-960.80784886</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-966.60234886</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-966.74134886</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-966.74134886</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-1009.90424886</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-1009.90424886</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-1009.69304886</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-1019.95804886</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-1019.12214886</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-1019.12214886</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-1019.12214886</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-985.11624886</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-984.24094886</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-984.24094886</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-984.24094886</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-984.53754886</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-984.53754886</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-984.53754886</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-994.53754886</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-994.53754886</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-890.8095488600001</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-660.4068488600001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-669.5640488600001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-669.74214886</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-669.74214886</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-647.0205488600001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-747.1487488600001</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-747.1487488600001</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-772.2991488600001</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-736.2464488600001</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-736.2464488600001</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-744.7846488600001</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-737.1021488600001</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-736.8615488600001</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-735.6824488600001</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-738.2824488600002</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-739.2631488600001</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-739.2631488600001</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-751.0685488600001</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-701.1573488600001</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-726.1129488600001</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-708.0129488600001</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-707.8362488600001</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-692.38894886</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-685.8480488600001</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-685.6554488600001</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-703.3946488600001</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-692.8515488600001</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-615.5148488600001</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-615.9211488600001</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-660.4992488600001</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-660.3604488600001</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-638.3708488600001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-638.3708488600001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-636.5740488600002</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-637.3237472100002</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-630.9248472100002</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-469.3598472100001</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-326.8370472100002</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-250.0001472100001</v>
       </c>
       <c r="H590">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-230.7349472100001</v>
       </c>
       <c r="H591">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-199.5479472100001</v>
       </c>
       <c r="H592">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-188.4701472100001</v>
       </c>
       <c r="H593">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H594">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H595">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H596">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H597">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-332.2521472100001</v>
       </c>
       <c r="H598">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-20 BCH ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-20 BCH ohlcv.xlsx
@@ -1510,7 +1510,7 @@
         <v>-57.98863657000001</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-64.29233657000002</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-73.19923657000002</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-73.13373657000002</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-38.32313657000002</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-38.82203657000002</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-39.60163657000003</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-37.41533657000002</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-37.91533657000002</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-38.11233657000002</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-36.17803657000002</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-36.21763657000002</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-41.84303657000002</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-39.75653657000002</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-44.75653657000002</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-44.25933657000002</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-46.95783657000003</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-47.40663657000002</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-65.10653657000003</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-98.44803657000004</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-98.57303657000004</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-106.8655337500002</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-106.6655337500002</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-102.9668337500002</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-152.9593337500002</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-201.9310337500002</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-453.0083337500002</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-841.3731759299998</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-844.8978759299998</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-849.6931759299998</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-829.8473550599998</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-847.9323550599998</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-841.2683550599999</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-835.2747550599998</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-835.2508550599998</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-835.2508550599998</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-825.9117550599998</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-920.18535506</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-918.8151550600001</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-912.1755550600001</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-930.4522550600001</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-916.9852550600001</v>
       </c>
       <c r="H450">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-912.5382550600001</v>
       </c>
       <c r="H451">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-912.6169550600001</v>
       </c>
       <c r="H452">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-913.1968550600001</v>
       </c>
       <c r="H453">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-913.0488550600001</v>
       </c>
       <c r="H454">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-914.62545506</v>
       </c>
       <c r="H455">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-910.62545506</v>
       </c>
       <c r="H456">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-920.62545506</v>
       </c>
       <c r="H457">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-924.81715506</v>
       </c>
       <c r="H458">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-927.77705506</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-942.03785506</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-940.0601550599999</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-938.4456550599999</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-938.0666550599999</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-938.9415550599999</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-932.0887550599999</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H471">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H472">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-949.34305506</v>
       </c>
       <c r="H473">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-948.15774886</v>
       </c>
       <c r="H474">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-955.04944886</v>
       </c>
       <c r="H475">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-975.04944886</v>
       </c>
       <c r="H476">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-975.04944886</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-960.80784886</v>
       </c>
       <c r="H478">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-960.80784886</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-966.60234886</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-660.4068488600001</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-669.5640488600001</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-669.74214886</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-669.74214886</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-647.0205488600001</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-747.1487488600001</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-747.1487488600001</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-738.5054488600001</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-733.2991488600001</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-772.2991488600001</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-736.2464488600001</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-736.2464488600001</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-744.7846488600001</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H537">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-746.3407488600001</v>
       </c>
       <c r="H538">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-737.1021488600001</v>
       </c>
       <c r="H539">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-736.8615488600001</v>
       </c>
       <c r="H540">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-735.6824488600001</v>
       </c>
       <c r="H541">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-738.2824488600002</v>
       </c>
       <c r="H542">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H543">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H544">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-739.2649488600001</v>
       </c>
       <c r="H545">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-739.2631488600001</v>
       </c>
       <c r="H546">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-739.2631488600001</v>
       </c>
       <c r="H547">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-751.0685488600001</v>
       </c>
       <c r="H548">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-701.1573488600001</v>
       </c>
       <c r="H549">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-726.1129488600001</v>
       </c>
       <c r="H550">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-708.0129488600001</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-707.8362488600001</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-692.38894886</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-635.8480488600001</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-685.8480488600001</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-685.6554488600001</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-703.3946488600001</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-692.8515488600001</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-615.5148488600001</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-615.9211488600001</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-614.9733488600001</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-575.1976488600001</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-660.4992488600001</v>
       </c>
       <c r="H569">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-660.3604488600001</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-660.5435488600001</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-638.3708488600001</v>
       </c>
       <c r="H573">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-638.3708488600001</v>
       </c>
       <c r="H574">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-636.5740488600002</v>
       </c>
       <c r="H575">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-637.3237472100002</v>
       </c>
       <c r="H576">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-630.9248472100002</v>
       </c>
       <c r="H577">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H578">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-632.2366472100001</v>
       </c>
       <c r="H579">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-469.3598472100001</v>
       </c>
       <c r="H580">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-326.8370472100002</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-248.2557472100001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-250.0001472100001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-230.7349472100001</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-188.4701472100001</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-280.3329472100002</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-364.7738472100002</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-332.2521472100001</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
